--- a/Archies Setup Checklist.xlsx
+++ b/Archies Setup Checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/96330677c0ff9afc/Documents/RC Firmware/Rotorflight/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="300" documentId="8_{6E40DE87-1411-4189-8D70-DFC03AB8E9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C7E963A-7005-44F4-A09B-4C1E6C50886E}"/>
+  <xr:revisionPtr revIDLastSave="318" documentId="8_{6E40DE87-1411-4189-8D70-DFC03AB8E9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F22B441-D4E7-4D8A-9453-7E3AA50FE4EB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E2182C97-FD7E-4F12-9556-A64C06CE13CD}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="71">
   <si>
     <t>Update Rotorflight</t>
   </si>
@@ -189,9 +189,6 @@
     <t>Filtered Example</t>
   </si>
   <si>
-    <t>Blackbox Configurator</t>
-  </si>
-  <si>
     <t>Express LRS Configurator</t>
   </si>
   <si>
@@ -247,6 +244,12 @@
   </si>
   <si>
     <t>Go Fly and Have Fun</t>
+  </si>
+  <si>
+    <t>RotorFlight Configurator</t>
+  </si>
+  <si>
+    <t>Servo programming box</t>
   </si>
 </sst>
 </file>
@@ -969,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842CC312-70F4-4AE5-9617-60A6EE42B6E6}">
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -995,7 +998,7 @@
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
@@ -1019,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="2"/>
@@ -1032,7 +1035,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="2"/>
@@ -1045,7 +1048,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="2"/>
@@ -1058,7 +1061,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="2"/>
@@ -1093,7 +1096,7 @@
         <v>17</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="2"/>
@@ -1106,7 +1109,7 @@
         <v>22</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="2"/>
@@ -1119,7 +1122,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="2"/>
@@ -1143,7 +1146,7 @@
         <v>24</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="2"/>
@@ -1155,7 +1158,9 @@
       <c r="C15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="23"/>
+      <c r="D15" s="23" t="s">
+        <v>70</v>
+      </c>
       <c r="E15" s="12"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -1167,7 +1172,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="2"/>
@@ -1191,7 +1196,7 @@
         <v>7</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="2"/>
@@ -1204,7 +1209,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="2"/>
@@ -1217,7 +1222,7 @@
         <v>11</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="2"/>
@@ -1230,7 +1235,7 @@
         <v>10</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="2"/>
@@ -1243,7 +1248,7 @@
         <v>12</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="2"/>
@@ -1278,7 +1283,7 @@
         <v>16</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="2"/>
@@ -1288,10 +1293,10 @@
       <c r="A26" s="2"/>
       <c r="B26" s="11"/>
       <c r="C26" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="2"/>
@@ -1315,7 +1320,7 @@
         <v>26</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="2"/>
@@ -1339,7 +1344,7 @@
         <v>27</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="2"/>
@@ -1352,7 +1357,7 @@
         <v>20</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="2"/>
@@ -1365,7 +1370,7 @@
         <v>21</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="2"/>
@@ -1375,7 +1380,7 @@
       <c r="A33" s="2"/>
       <c r="B33" s="11"/>
       <c r="C33" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="12"/>
@@ -1413,7 +1418,7 @@
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -1424,7 +1429,7 @@
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -1435,7 +1440,7 @@
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -1446,7 +1451,7 @@
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -1457,7 +1462,7 @@
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -1477,7 +1482,7 @@
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -1488,7 +1493,7 @@
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -1508,7 +1513,7 @@
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -1519,7 +1524,7 @@
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -1530,7 +1535,7 @@
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -1550,7 +1555,7 @@
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -1570,7 +1575,7 @@
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -1581,7 +1586,7 @@
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>

--- a/Archies Setup Checklist.xlsx
+++ b/Archies Setup Checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/96330677c0ff9afc/Documents/RC Firmware/Rotorflight/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/96330677c0ff9afc/Documents/RC Firmware/Rotorflight/Github/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="318" documentId="8_{6E40DE87-1411-4189-8D70-DFC03AB8E9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F22B441-D4E7-4D8A-9453-7E3AA50FE4EB}"/>
+  <xr:revisionPtr revIDLastSave="354" documentId="8_{6E40DE87-1411-4189-8D70-DFC03AB8E9B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5041B7B1-2679-4C9A-A6DD-5ECBBB7D56A7}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E2182C97-FD7E-4F12-9556-A64C06CE13CD}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{E2182C97-FD7E-4F12-9556-A64C06CE13CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Setup Checklist" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="72">
   <si>
     <t>Update Rotorflight</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Check Swash level and full positvie and negative</t>
   </si>
   <si>
-    <t>Set calibration % to 40 for Cyclic, Collective, Tail</t>
-  </si>
-  <si>
     <t>Remove, Blades, Head, Tail blades</t>
   </si>
   <si>
@@ -250,6 +247,12 @@
   </si>
   <si>
     <t>Servo programming box</t>
+  </si>
+  <si>
+    <t>Set Initial calibration % to 40 for Cyclic, Collective, Tail</t>
+  </si>
+  <si>
+    <t>https://github.com/offer-shmuely/edgetx-x10-scripts</t>
   </si>
 </sst>
 </file>
@@ -649,10 +652,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -970,10 +969,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842CC312-70F4-4AE5-9617-60A6EE42B6E6}">
-  <dimension ref="A1:G53"/>
+  <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -998,7 +997,7 @@
     <row r="2" spans="1:7" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="27"/>
@@ -1022,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="2"/>
@@ -1035,7 +1034,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="2"/>
@@ -1048,7 +1047,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="2"/>
@@ -1061,7 +1060,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="2"/>
@@ -1082,7 +1081,7 @@
       <c r="A9" s="2"/>
       <c r="B9" s="11"/>
       <c r="C9" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="23"/>
       <c r="E9" s="12"/>
@@ -1093,10 +1092,10 @@
       <c r="A10" s="2"/>
       <c r="B10" s="11"/>
       <c r="C10" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="2"/>
@@ -1106,10 +1105,10 @@
       <c r="A11" s="2"/>
       <c r="B11" s="11"/>
       <c r="C11" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="2"/>
@@ -1122,7 +1121,7 @@
         <v>3</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="2"/>
@@ -1132,7 +1131,7 @@
       <c r="A13" s="2"/>
       <c r="B13" s="11"/>
       <c r="C13" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="23"/>
       <c r="E13" s="12"/>
@@ -1143,10 +1142,10 @@
       <c r="A14" s="2"/>
       <c r="B14" s="11"/>
       <c r="C14" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="2"/>
@@ -1156,10 +1155,10 @@
       <c r="A15" s="2"/>
       <c r="B15" s="11"/>
       <c r="C15" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="2"/>
@@ -1172,7 +1171,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E16" s="12"/>
       <c r="F16" s="2"/>
@@ -1196,7 +1195,7 @@
         <v>7</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="2"/>
@@ -1209,7 +1208,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="2"/>
@@ -1219,10 +1218,10 @@
       <c r="A20" s="2"/>
       <c r="B20" s="11"/>
       <c r="C20" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="2"/>
@@ -1232,10 +1231,10 @@
       <c r="A21" s="2"/>
       <c r="B21" s="11"/>
       <c r="C21" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="2"/>
@@ -1245,10 +1244,10 @@
       <c r="A22" s="2"/>
       <c r="B22" s="11"/>
       <c r="C22" s="7" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="2"/>
@@ -1258,7 +1257,7 @@
       <c r="A23" s="2"/>
       <c r="B23" s="11"/>
       <c r="C23" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23" s="23"/>
       <c r="E23" s="12"/>
@@ -1269,7 +1268,7 @@
       <c r="A24" s="2"/>
       <c r="B24" s="11"/>
       <c r="C24" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D24" s="23"/>
       <c r="E24" s="12"/>
@@ -1280,10 +1279,10 @@
       <c r="A25" s="2"/>
       <c r="B25" s="11"/>
       <c r="C25" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="2"/>
@@ -1293,10 +1292,10 @@
       <c r="A26" s="2"/>
       <c r="B26" s="11"/>
       <c r="C26" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="2"/>
@@ -1306,7 +1305,7 @@
       <c r="A27" s="2"/>
       <c r="B27" s="11"/>
       <c r="C27" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D27" s="23"/>
       <c r="E27" s="12"/>
@@ -1317,10 +1316,10 @@
       <c r="A28" s="2"/>
       <c r="B28" s="11"/>
       <c r="C28" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="2"/>
@@ -1330,7 +1329,7 @@
       <c r="A29" s="2"/>
       <c r="B29" s="11"/>
       <c r="C29" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D29" s="23"/>
       <c r="E29" s="12"/>
@@ -1341,10 +1340,10 @@
       <c r="A30" s="2"/>
       <c r="B30" s="11"/>
       <c r="C30" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="2"/>
@@ -1354,10 +1353,10 @@
       <c r="A31" s="2"/>
       <c r="B31" s="11"/>
       <c r="C31" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D31" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="2"/>
@@ -1367,10 +1366,10 @@
       <c r="A32" s="2"/>
       <c r="B32" s="11"/>
       <c r="C32" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D32" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="2"/>
@@ -1380,7 +1379,7 @@
       <c r="A33" s="2"/>
       <c r="B33" s="11"/>
       <c r="C33" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="12"/>
@@ -1418,7 +1417,7 @@
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -1429,7 +1428,7 @@
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -1440,7 +1439,7 @@
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -1451,7 +1450,7 @@
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -1462,7 +1461,7 @@
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -1482,7 +1481,7 @@
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -1493,7 +1492,7 @@
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
@@ -1513,7 +1512,7 @@
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
@@ -1524,7 +1523,7 @@
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
@@ -1535,7 +1534,7 @@
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
@@ -1555,7 +1554,7 @@
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -1565,7 +1564,9 @@
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
+      <c r="C51" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -1574,9 +1575,7 @@
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
-      <c r="C52" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -1586,12 +1585,23 @@
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1605,8 +1615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA34DC71-71F2-47B8-8E67-EC318B7FB492}">
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1638,7 +1648,7 @@
       <c r="A2" s="2"/>
       <c r="B2" s="9"/>
       <c r="C2" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="27"/>
       <c r="E2" s="27"/>
@@ -1704,13 +1714,13 @@
       <c r="A6" s="2"/>
       <c r="B6" s="11"/>
       <c r="C6" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="7">
-        <v>1476</v>
+        <v>1494</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -1726,17 +1736,17 @@
       <c r="A7" s="2"/>
       <c r="B7" s="11"/>
       <c r="C7" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" s="7">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E7" s="7">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="F7" s="2">
         <f>E7/D7</f>
-        <v>10.538461538461538</v>
+        <v>9.4375</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -1751,17 +1761,17 @@
       <c r="A8" s="2"/>
       <c r="B8" s="11"/>
       <c r="C8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D8" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" s="7">
         <v>101</v>
       </c>
       <c r="F8" s="2">
         <f>E8/D8</f>
-        <v>5.3157894736842106</v>
+        <v>5.05</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -1776,11 +1786,11 @@
       <c r="A9" s="2"/>
       <c r="B9" s="11"/>
       <c r="C9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="14">
         <f>D6*F8</f>
-        <v>7846.105263157895</v>
+        <v>7544.7</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -1797,15 +1807,15 @@
       <c r="A10" s="2"/>
       <c r="B10" s="11"/>
       <c r="C10" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="14">
         <f>D6*F7</f>
-        <v>15554.76923076923</v>
+        <v>14099.625</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1837,7 +1847,7 @@
       <c r="B12" s="11"/>
       <c r="C12" s="2"/>
       <c r="D12" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="30"/>
       <c r="F12" s="30"/>
@@ -1872,31 +1882,31 @@
       <c r="C14" s="2"/>
       <c r="D14" s="6">
         <f>D6/60</f>
-        <v>24.6</v>
+        <v>24.9</v>
       </c>
       <c r="E14" s="6">
         <f>D14*2</f>
-        <v>49.2</v>
+        <v>49.8</v>
       </c>
       <c r="F14" s="6">
         <f>D14*3</f>
-        <v>73.800000000000011</v>
+        <v>74.699999999999989</v>
       </c>
       <c r="G14" s="6">
         <f>D14*4</f>
-        <v>98.4</v>
+        <v>99.6</v>
       </c>
       <c r="H14" s="6">
         <f>D9/60</f>
-        <v>130.7684210526316</v>
+        <v>125.74499999999999</v>
       </c>
       <c r="I14" s="6">
         <f>H14*2</f>
-        <v>261.53684210526319</v>
+        <v>251.48999999999998</v>
       </c>
       <c r="J14" s="6">
         <f>D10/60</f>
-        <v>259.24615384615385</v>
+        <v>234.99375000000001</v>
       </c>
       <c r="K14" s="15"/>
       <c r="L14" s="3"/>
@@ -1908,25 +1918,25 @@
       <c r="B15" s="11"/>
       <c r="C15" s="4"/>
       <c r="D15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="G15" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="H15" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="5" t="s">
         <v>36</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>37</v>
       </c>
       <c r="K15" s="16"/>
       <c r="L15" s="5"/>
@@ -1986,7 +1996,7 @@
       <c r="A19" s="2"/>
       <c r="B19" s="11"/>
       <c r="C19" s="31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19" s="32"/>
       <c r="E19" s="32"/>
@@ -2021,10 +2031,10 @@
       <c r="B21" s="11"/>
       <c r="C21" s="2"/>
       <c r="D21" s="7">
-        <v>49.2</v>
+        <v>24.9</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -2058,10 +2068,10 @@
       <c r="C23" s="2"/>
       <c r="D23" s="8">
         <f>D21*60</f>
-        <v>2952</v>
+        <v>1494</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -2079,10 +2089,10 @@
       <c r="C24" s="2"/>
       <c r="D24" s="8">
         <f>D23/2</f>
-        <v>1476</v>
+        <v>747</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -2145,7 +2155,7 @@
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="2"/>
       <c r="B28" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -2531,7 +2541,7 @@
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52" s="2"/>
       <c r="B52" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
